--- a/resultados/pretratamiento-tablas-control/pretrat-espana-elo-facil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-espana-elo-facil-dificultad.xlsx
@@ -4001,10 +4001,10 @@
         <v>1.843</v>
       </c>
       <c r="H2">
-        <v>0.541</v>
+        <v>0.607</v>
       </c>
       <c r="I2">
-        <v>0.589</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4030,10 +4030,10 @@
         <v>3.373</v>
       </c>
       <c r="H3">
-        <v>0.985</v>
+        <v>0.886</v>
       </c>
       <c r="I3">
-        <v>0.326</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4059,10 +4059,10 @@
         <v>-0.175</v>
       </c>
       <c r="H4">
-        <v>-0.042</v>
+        <v>-0.043</v>
       </c>
       <c r="I4">
-        <v>0.966</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4088,10 +4088,10 @@
         <v>1.115</v>
       </c>
       <c r="H5">
-        <v>0.25</v>
+        <v>0.205</v>
       </c>
       <c r="I5">
-        <v>0.803</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4117,10 +4117,10 @@
         <v>0.575</v>
       </c>
       <c r="H6">
-        <v>0.124</v>
+        <v>0.107</v>
       </c>
       <c r="I6">
-        <v>0.901</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4146,10 +4146,10 @@
         <v>-0.577</v>
       </c>
       <c r="H7">
-        <v>-0.129</v>
+        <v>-0.13</v>
       </c>
       <c r="I7">
-        <v>0.897</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4175,10 +4175,10 @@
         <v>-0.509</v>
       </c>
       <c r="H8">
-        <v>-0.37</v>
+        <v>-0.419</v>
       </c>
       <c r="I8">
-        <v>0.711</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4204,10 +4204,10 @@
         <v>-1.7</v>
       </c>
       <c r="H9">
-        <v>-1.265</v>
+        <v>-1.447</v>
       </c>
       <c r="I9">
-        <v>0.207</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4233,10 +4233,10 @@
         <v>0.081</v>
       </c>
       <c r="H10">
-        <v>0.05</v>
+        <v>0.061</v>
       </c>
       <c r="I10">
-        <v>0.96</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4262,10 +4262,10 @@
         <v>-0.104</v>
       </c>
       <c r="H11">
-        <v>-0.06</v>
+        <v>-0.057</v>
       </c>
       <c r="I11">
-        <v>0.952</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4291,10 +4291,10 @@
         <v>-1.027</v>
       </c>
       <c r="H12">
-        <v>-0.5659999999999999</v>
+        <v>-0.485</v>
       </c>
       <c r="I12">
-        <v>0.572</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4320,10 +4320,10 @@
         <v>-0.393</v>
       </c>
       <c r="H13">
-        <v>-0.219</v>
+        <v>-0.194</v>
       </c>
       <c r="I13">
-        <v>0.827</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4349,10 +4349,10 @@
         <v>-0.02</v>
       </c>
       <c r="H14">
-        <v>-0.85</v>
+        <v>-1.357</v>
       </c>
       <c r="I14">
-        <v>0.396</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4378,10 +4378,10 @@
         <v>-0.001</v>
       </c>
       <c r="H15">
-        <v>-0.056</v>
+        <v>-0.066</v>
       </c>
       <c r="I15">
-        <v>0.956</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4407,10 +4407,10 @@
         <v>0.025</v>
       </c>
       <c r="H16">
-        <v>0.716</v>
+        <v>0.909</v>
       </c>
       <c r="I16">
-        <v>0.475</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4436,10 +4436,10 @@
         <v>0.045</v>
       </c>
       <c r="H17">
-        <v>1.02</v>
+        <v>0.949</v>
       </c>
       <c r="I17">
-        <v>0.309</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4465,10 +4465,10 @@
         <v>0.053</v>
       </c>
       <c r="H18">
-        <v>1.098</v>
+        <v>0.928</v>
       </c>
       <c r="I18">
-        <v>0.273</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4494,10 +4494,10 @@
         <v>-0.066</v>
       </c>
       <c r="H19">
-        <v>-1.356</v>
+        <v>-1.057</v>
       </c>
       <c r="I19">
-        <v>0.177</v>
+        <v>0.291</v>
       </c>
     </row>
   </sheetData>
@@ -4583,10 +4583,10 @@
         <v>-0.671</v>
       </c>
       <c r="I2">
-        <v>-0.193</v>
+        <v>-0.173</v>
       </c>
       <c r="J2">
-        <v>0.847</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4615,10 +4615,10 @@
         <v>-0.402</v>
       </c>
       <c r="I3">
-        <v>-0.112</v>
+        <v>-0.13</v>
       </c>
       <c r="J3">
-        <v>0.911</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4647,10 +4647,10 @@
         <v>-1.298</v>
       </c>
       <c r="I4">
-        <v>-0.313</v>
+        <v>-0.4</v>
       </c>
       <c r="J4">
-        <v>0.755</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4679,10 +4679,10 @@
         <v>-2.552</v>
       </c>
       <c r="I5">
-        <v>-0.574</v>
+        <v>-0.631</v>
       </c>
       <c r="J5">
-        <v>0.5669999999999999</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4711,10 +4711,10 @@
         <v>8.598000000000001</v>
       </c>
       <c r="I6">
-        <v>1.883</v>
+        <v>3.127</v>
       </c>
       <c r="J6">
-        <v>0.061</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4743,10 +4743,10 @@
         <v>2.546</v>
       </c>
       <c r="I7">
-        <v>0.548</v>
+        <v>0.455</v>
       </c>
       <c r="J7">
-        <v>0.585</v>
+        <v>0.649</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4775,10 +4775,10 @@
         <v>1.435</v>
       </c>
       <c r="I8">
-        <v>1.047</v>
+        <v>1.164</v>
       </c>
       <c r="J8">
-        <v>0.297</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4807,10 +4807,10 @@
         <v>0.349</v>
       </c>
       <c r="I9">
-        <v>0.253</v>
+        <v>0.269</v>
       </c>
       <c r="J9">
-        <v>0.8</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4839,10 +4839,10 @@
         <v>1.812</v>
       </c>
       <c r="I10">
-        <v>1.137</v>
+        <v>1.52</v>
       </c>
       <c r="J10">
-        <v>0.257</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4871,10 +4871,10 @@
         <v>1.271</v>
       </c>
       <c r="I11">
-        <v>0.751</v>
+        <v>0.862</v>
       </c>
       <c r="J11">
-        <v>0.454</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4903,10 +4903,10 @@
         <v>-3.391</v>
       </c>
       <c r="I12">
-        <v>-1.89</v>
+        <v>-2.235</v>
       </c>
       <c r="J12">
-        <v>0.06</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4935,10 +4935,10 @@
         <v>-1.181</v>
       </c>
       <c r="I13">
-        <v>-0.636</v>
+        <v>-0.491</v>
       </c>
       <c r="J13">
-        <v>0.526</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4967,10 +4967,10 @@
         <v>-0.025</v>
       </c>
       <c r="I14">
-        <v>-1.054</v>
+        <v>-0.916</v>
       </c>
       <c r="J14">
-        <v>0.293</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4999,10 +4999,10 @@
         <v>-0.007</v>
       </c>
       <c r="I15">
-        <v>-0.283</v>
+        <v>-0.224</v>
       </c>
       <c r="J15">
-        <v>0.777</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5031,10 +5031,10 @@
         <v>-0.01</v>
       </c>
       <c r="I16">
-        <v>-0.351</v>
+        <v>-0.578</v>
       </c>
       <c r="J16">
-        <v>0.726</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5063,10 +5063,10 @@
         <v>0.042</v>
       </c>
       <c r="I17">
-        <v>0.999</v>
+        <v>0.757</v>
       </c>
       <c r="J17">
-        <v>0.319</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5095,10 +5095,10 @@
         <v>0.026</v>
       </c>
       <c r="I18">
-        <v>0.549</v>
+        <v>0.586</v>
       </c>
       <c r="J18">
-        <v>0.584</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5127,10 +5127,10 @@
         <v>-0.002</v>
       </c>
       <c r="I19">
-        <v>-0.036</v>
+        <v>-0.033</v>
       </c>
       <c r="J19">
-        <v>0.972</v>
+        <v>0.973</v>
       </c>
     </row>
   </sheetData>
@@ -5223,10 +5223,10 @@
         <v>-0.39</v>
       </c>
       <c r="J2">
-        <v>-0.101</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="K2">
-        <v>0.92</v>
+        <v>0.9330000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5258,10 +5258,10 @@
         <v>-1.709</v>
       </c>
       <c r="J3">
-        <v>-0.429</v>
+        <v>-0.452</v>
       </c>
       <c r="K3">
-        <v>0.668</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5293,10 +5293,10 @@
         <v>-2.564</v>
       </c>
       <c r="J4">
-        <v>-0.556</v>
+        <v>-0.597</v>
       </c>
       <c r="K4">
-        <v>0.579</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5328,10 +5328,10 @@
         <v>-1.367</v>
       </c>
       <c r="J5">
-        <v>-0.277</v>
+        <v>-0.302</v>
       </c>
       <c r="K5">
-        <v>0.782</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5363,10 +5363,10 @@
         <v>6.436</v>
       </c>
       <c r="J6">
-        <v>1.263</v>
+        <v>1.684</v>
       </c>
       <c r="K6">
-        <v>0.208</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5398,10 +5398,10 @@
         <v>2.32</v>
       </c>
       <c r="J7">
-        <v>0.449</v>
+        <v>0.316</v>
       </c>
       <c r="K7">
-        <v>0.654</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5433,10 +5433,10 @@
         <v>1.44</v>
       </c>
       <c r="J8">
-        <v>0.946</v>
+        <v>1.06</v>
       </c>
       <c r="K8">
-        <v>0.345</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5468,10 +5468,10 @@
         <v>1.129</v>
       </c>
       <c r="J9">
-        <v>0.738</v>
+        <v>0.714</v>
       </c>
       <c r="K9">
-        <v>0.461</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5503,10 +5503,10 @@
         <v>1.753</v>
       </c>
       <c r="J10">
-        <v>0.99</v>
+        <v>1.036</v>
       </c>
       <c r="K10">
-        <v>0.324</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5538,10 +5538,10 @@
         <v>1.293</v>
       </c>
       <c r="J11">
-        <v>0.6879999999999999</v>
+        <v>0.804</v>
       </c>
       <c r="K11">
-        <v>0.492</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5573,10 +5573,10 @@
         <v>-2.96</v>
       </c>
       <c r="J12">
-        <v>-1.481</v>
+        <v>-1.483</v>
       </c>
       <c r="K12">
-        <v>0.14</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5608,10 +5608,10 @@
         <v>-1.59</v>
       </c>
       <c r="J13">
-        <v>-0.772</v>
+        <v>-0.506</v>
       </c>
       <c r="K13">
-        <v>0.441</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5643,10 +5643,10 @@
         <v>-0.029</v>
       </c>
       <c r="J14">
-        <v>-1.074</v>
+        <v>-1.093</v>
       </c>
       <c r="K14">
-        <v>0.284</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5678,10 +5678,10 @@
         <v>-0.005</v>
       </c>
       <c r="J15">
-        <v>-0.181</v>
+        <v>-0.14</v>
       </c>
       <c r="K15">
-        <v>0.857</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5713,10 +5713,10 @@
         <v>0.005</v>
       </c>
       <c r="J16">
-        <v>0.14</v>
+        <v>0.157</v>
       </c>
       <c r="K16">
-        <v>0.889</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5748,10 +5748,10 @@
         <v>0.044</v>
       </c>
       <c r="J17">
-        <v>0.9370000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="K17">
-        <v>0.35</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5783,10 +5783,10 @@
         <v>0.015</v>
       </c>
       <c r="J18">
-        <v>0.279</v>
+        <v>0.427</v>
       </c>
       <c r="K18">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5818,10 +5818,10 @@
         <v>-0.032</v>
       </c>
       <c r="J19">
-        <v>-0.577</v>
+        <v>-0.543</v>
       </c>
       <c r="K19">
-        <v>0.5649999999999999</v>
+        <v>0.587</v>
       </c>
     </row>
   </sheetData>
@@ -5914,10 +5914,10 @@
         <v>0.431</v>
       </c>
       <c r="J2">
-        <v>0.094</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K2">
-        <v>0.925</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5949,10 +5949,10 @@
         <v>-3.441</v>
       </c>
       <c r="J3">
-        <v>-0.724</v>
+        <v>-0.8179999999999999</v>
       </c>
       <c r="K3">
-        <v>0.47</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5984,10 +5984,10 @@
         <v>-5.635</v>
       </c>
       <c r="J4">
-        <v>-1.027</v>
+        <v>-1.289</v>
       </c>
       <c r="K4">
-        <v>0.306</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6019,10 +6019,10 @@
         <v>-3.724</v>
       </c>
       <c r="J5">
-        <v>-0.632</v>
+        <v>-0.77</v>
       </c>
       <c r="K5">
-        <v>0.528</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6054,10 +6054,10 @@
         <v>5.438</v>
       </c>
       <c r="J6">
-        <v>0.892</v>
+        <v>1.113</v>
       </c>
       <c r="K6">
-        <v>0.373</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6089,10 +6089,10 @@
         <v>0.614</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K7">
-        <v>0.921</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6124,10 +6124,10 @@
         <v>0.661</v>
       </c>
       <c r="J8">
-        <v>0.363</v>
+        <v>0.296</v>
       </c>
       <c r="K8">
-        <v>0.717</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6159,10 +6159,10 @@
         <v>1.317</v>
       </c>
       <c r="J9">
-        <v>0.721</v>
+        <v>0.774</v>
       </c>
       <c r="K9">
-        <v>0.472</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6194,10 +6194,10 @@
         <v>2.932</v>
       </c>
       <c r="J10">
-        <v>1.391</v>
+        <v>1.427</v>
       </c>
       <c r="K10">
-        <v>0.166</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6229,10 +6229,10 @@
         <v>2.745</v>
       </c>
       <c r="J11">
-        <v>1.227</v>
+        <v>1.534</v>
       </c>
       <c r="K11">
-        <v>0.221</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6264,10 +6264,10 @@
         <v>-2.916</v>
       </c>
       <c r="J12">
-        <v>-1.22</v>
+        <v>-1.204</v>
       </c>
       <c r="K12">
-        <v>0.224</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6299,10 +6299,10 @@
         <v>-0.531</v>
       </c>
       <c r="J13">
-        <v>-0.215</v>
+        <v>-0.142</v>
       </c>
       <c r="K13">
-        <v>0.83</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6334,10 +6334,10 @@
         <v>-0.034</v>
       </c>
       <c r="J14">
-        <v>-1.064</v>
+        <v>-1.024</v>
       </c>
       <c r="K14">
-        <v>0.289</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6369,10 +6369,10 @@
         <v>0.001</v>
       </c>
       <c r="J15">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="K15">
-        <v>0.977</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6404,10 +6404,10 @@
         <v>-0.007</v>
       </c>
       <c r="J16">
-        <v>-0.181</v>
+        <v>-0.221</v>
       </c>
       <c r="K16">
-        <v>0.856</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6439,10 +6439,10 @@
         <v>0.035</v>
       </c>
       <c r="J17">
-        <v>0.63</v>
+        <v>0.582</v>
       </c>
       <c r="K17">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6474,10 +6474,10 @@
         <v>0.026</v>
       </c>
       <c r="J18">
-        <v>0.42</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="K18">
-        <v>0.675</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6509,10 +6509,10 @@
         <v>-0.039</v>
       </c>
       <c r="J19">
-        <v>-0.605</v>
+        <v>-0.5570000000000001</v>
       </c>
       <c r="K19">
-        <v>0.546</v>
+        <v>0.578</v>
       </c>
     </row>
   </sheetData>
@@ -6598,10 +6598,10 @@
         <v>-3.071</v>
       </c>
       <c r="I2">
-        <v>-1.031</v>
+        <v>-1.189</v>
       </c>
       <c r="J2">
-        <v>0.304</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6630,10 +6630,10 @@
         <v>-3.077</v>
       </c>
       <c r="I3">
-        <v>-1.009</v>
+        <v>-0.871</v>
       </c>
       <c r="J3">
-        <v>0.314</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6662,10 +6662,10 @@
         <v>-5.557</v>
       </c>
       <c r="I4">
-        <v>-1.607</v>
+        <v>-1.777</v>
       </c>
       <c r="J4">
-        <v>0.11</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6694,10 +6694,10 @@
         <v>-0.709</v>
       </c>
       <c r="I5">
-        <v>-0.19</v>
+        <v>-0.156</v>
       </c>
       <c r="J5">
-        <v>0.849</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6726,10 +6726,10 @@
         <v>3.636</v>
       </c>
       <c r="I6">
-        <v>0.96</v>
+        <v>0.978</v>
       </c>
       <c r="J6">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6790,10 +6790,10 @@
         <v>1.212</v>
       </c>
       <c r="I8">
-        <v>1.026</v>
+        <v>1.084</v>
       </c>
       <c r="J8">
-        <v>0.307</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6822,10 +6822,10 @@
         <v>1.662</v>
       </c>
       <c r="I9">
-        <v>1.487</v>
+        <v>1.515</v>
       </c>
       <c r="J9">
-        <v>0.139</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6854,10 +6854,10 @@
         <v>3.142</v>
       </c>
       <c r="I10">
-        <v>2.433</v>
+        <v>2.762</v>
       </c>
       <c r="J10">
-        <v>0.016</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6886,10 +6886,10 @@
         <v>-0.169</v>
       </c>
       <c r="I11">
-        <v>-0.121</v>
+        <v>-0.107</v>
       </c>
       <c r="J11">
-        <v>0.904</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6918,10 +6918,10 @@
         <v>-2.616</v>
       </c>
       <c r="I12">
-        <v>-1.777</v>
+        <v>-1.635</v>
       </c>
       <c r="J12">
-        <v>0.077</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6950,10 +6950,10 @@
         <v>-0.92</v>
       </c>
       <c r="I13">
-        <v>-0.62</v>
+        <v>-0.586</v>
       </c>
       <c r="J13">
-        <v>0.536</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6982,10 +6982,10 @@
         <v>-0.035</v>
       </c>
       <c r="I14">
-        <v>-1.722</v>
+        <v>-1.954</v>
       </c>
       <c r="J14">
-        <v>0.08699999999999999</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7014,10 +7014,10 @@
         <v>-0.024</v>
       </c>
       <c r="I15">
-        <v>-1.136</v>
+        <v>-0.913</v>
       </c>
       <c r="J15">
-        <v>0.258</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7046,10 +7046,10 @@
         <v>-0.038</v>
       </c>
       <c r="I16">
-        <v>-1.712</v>
+        <v>-1.894</v>
       </c>
       <c r="J16">
-        <v>0.089</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7078,10 +7078,10 @@
         <v>-0.027</v>
       </c>
       <c r="I17">
-        <v>-0.725</v>
+        <v>-0.5629999999999999</v>
       </c>
       <c r="J17">
-        <v>0.469</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7110,10 +7110,10 @@
         <v>0.055</v>
       </c>
       <c r="I18">
-        <v>1.415</v>
+        <v>1.596</v>
       </c>
       <c r="J18">
-        <v>0.159</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7142,10 +7142,10 @@
         <v>0.028</v>
       </c>
       <c r="I19">
-        <v>0.67</v>
+        <v>0.522</v>
       </c>
       <c r="J19">
-        <v>0.504</v>
+        <v>0.601</v>
       </c>
     </row>
   </sheetData>
@@ -7231,10 +7231,10 @@
         <v>-2.265</v>
       </c>
       <c r="I2">
-        <v>-0.618</v>
+        <v>-0.601</v>
       </c>
       <c r="J2">
-        <v>0.538</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7263,10 +7263,10 @@
         <v>-1.305</v>
       </c>
       <c r="I3">
-        <v>-0.347</v>
+        <v>-0.31</v>
       </c>
       <c r="J3">
-        <v>0.729</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7295,10 +7295,10 @@
         <v>-5.658</v>
       </c>
       <c r="I4">
-        <v>-1.328</v>
+        <v>-1.623</v>
       </c>
       <c r="J4">
-        <v>0.186</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7327,10 +7327,10 @@
         <v>-2.116</v>
       </c>
       <c r="I5">
-        <v>-0.462</v>
+        <v>-0.38</v>
       </c>
       <c r="J5">
-        <v>0.645</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7359,10 +7359,10 @@
         <v>11.049</v>
       </c>
       <c r="I6">
-        <v>2.407</v>
+        <v>2.552</v>
       </c>
       <c r="J6">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7391,10 +7391,10 @@
         <v>6.532</v>
       </c>
       <c r="I7">
-        <v>1.412</v>
+        <v>1.164</v>
       </c>
       <c r="J7">
-        <v>0.16</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7423,10 +7423,10 @@
         <v>2.185</v>
       </c>
       <c r="I8">
-        <v>1.51</v>
+        <v>1.759</v>
       </c>
       <c r="J8">
-        <v>0.133</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7455,10 +7455,10 @@
         <v>1.412</v>
       </c>
       <c r="I9">
-        <v>1.025</v>
+        <v>0.879</v>
       </c>
       <c r="J9">
-        <v>0.307</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7487,10 +7487,10 @@
         <v>3.745</v>
       </c>
       <c r="I10">
-        <v>2.356</v>
+        <v>2.559</v>
       </c>
       <c r="J10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7519,10 +7519,10 @@
         <v>0.613</v>
       </c>
       <c r="I11">
-        <v>0.355</v>
+        <v>0.318</v>
       </c>
       <c r="J11">
-        <v>0.723</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7551,10 +7551,10 @@
         <v>-5.127</v>
       </c>
       <c r="I12">
-        <v>-2.875</v>
+        <v>-2.767</v>
       </c>
       <c r="J12">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7583,10 +7583,10 @@
         <v>-3.29</v>
       </c>
       <c r="I13">
-        <v>-1.819</v>
+        <v>-1.44</v>
       </c>
       <c r="J13">
-        <v>0.07099999999999999</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7615,10 +7615,10 @@
         <v>-0.038</v>
       </c>
       <c r="I14">
-        <v>-1.506</v>
+        <v>-1.431</v>
       </c>
       <c r="J14">
-        <v>0.134</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7647,10 +7647,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J15">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7679,10 +7679,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I16">
-        <v>-0.323</v>
+        <v>-0.362</v>
       </c>
       <c r="J16">
-        <v>0.747</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7711,10 +7711,10 @@
         <v>0.041</v>
       </c>
       <c r="I17">
-        <v>0.901</v>
+        <v>0.679</v>
       </c>
       <c r="J17">
-        <v>0.369</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7743,10 +7743,10 @@
         <v>0.089</v>
       </c>
       <c r="I18">
-        <v>1.881</v>
+        <v>2.016</v>
       </c>
       <c r="J18">
-        <v>0.062</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7775,10 +7775,10 @@
         <v>0.02</v>
       </c>
       <c r="I19">
-        <v>0.38</v>
+        <v>0.344</v>
       </c>
       <c r="J19">
-        <v>0.704</v>
+        <v>0.731</v>
       </c>
     </row>
   </sheetData>
@@ -7871,10 +7871,10 @@
         <v>-2.514</v>
       </c>
       <c r="J2">
-        <v>-0.6</v>
+        <v>-0.472</v>
       </c>
       <c r="K2">
-        <v>0.549</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7906,10 +7906,10 @@
         <v>0.229</v>
       </c>
       <c r="J3">
-        <v>0.053</v>
+        <v>0.042</v>
       </c>
       <c r="K3">
-        <v>0.958</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7941,10 +7941,10 @@
         <v>-5.965</v>
       </c>
       <c r="J4">
-        <v>-1.225</v>
+        <v>-1.331</v>
       </c>
       <c r="K4">
-        <v>0.222</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7976,10 +7976,10 @@
         <v>-0.066</v>
       </c>
       <c r="J5">
-        <v>-0.013</v>
+        <v>-0.011</v>
       </c>
       <c r="K5">
-        <v>0.99</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8011,10 +8011,10 @@
         <v>12.004</v>
       </c>
       <c r="J6">
-        <v>2.285</v>
+        <v>2.247</v>
       </c>
       <c r="K6">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8046,10 +8046,10 @@
         <v>8.597</v>
       </c>
       <c r="J7">
-        <v>1.629</v>
+        <v>1.075</v>
       </c>
       <c r="K7">
-        <v>0.105</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8081,10 +8081,10 @@
         <v>2.788</v>
       </c>
       <c r="J8">
-        <v>1.689</v>
+        <v>1.694</v>
       </c>
       <c r="K8">
-        <v>0.093</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8116,10 +8116,10 @@
         <v>1.345</v>
       </c>
       <c r="J9">
-        <v>0.853</v>
+        <v>0.72</v>
       </c>
       <c r="K9">
-        <v>0.395</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8151,10 +8151,10 @@
         <v>3.625</v>
       </c>
       <c r="J10">
-        <v>1.987</v>
+        <v>1.876</v>
       </c>
       <c r="K10">
-        <v>0.049</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8221,10 +8221,10 @@
         <v>-6.006</v>
       </c>
       <c r="J12">
-        <v>-2.952</v>
+        <v>-2.468</v>
       </c>
       <c r="K12">
-        <v>0.004</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8256,10 +8256,10 @@
         <v>-4.477</v>
       </c>
       <c r="J13">
-        <v>-2.175</v>
+        <v>-1.352</v>
       </c>
       <c r="K13">
-        <v>0.031</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8291,10 +8291,10 @@
         <v>-0.043</v>
       </c>
       <c r="J14">
-        <v>-1.505</v>
+        <v>-1.208</v>
       </c>
       <c r="K14">
-        <v>0.134</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8326,10 +8326,10 @@
         <v>-0.001</v>
       </c>
       <c r="J15">
-        <v>-0.021</v>
+        <v>-0.017</v>
       </c>
       <c r="K15">
-        <v>0.983</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8361,10 +8361,10 @@
         <v>-0.007</v>
       </c>
       <c r="J16">
-        <v>-0.238</v>
+        <v>-0.27</v>
       </c>
       <c r="K16">
-        <v>0.8120000000000001</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8396,10 +8396,10 @@
         <v>0.041</v>
       </c>
       <c r="J17">
-        <v>0.799</v>
+        <v>0.725</v>
       </c>
       <c r="K17">
-        <v>0.425</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8431,10 +8431,10 @@
         <v>0.067</v>
       </c>
       <c r="J18">
-        <v>1.221</v>
+        <v>1.394</v>
       </c>
       <c r="K18">
-        <v>0.224</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8466,10 +8466,10 @@
         <v>-0.015</v>
       </c>
       <c r="J19">
-        <v>-0.255</v>
+        <v>-0.214</v>
       </c>
       <c r="K19">
-        <v>0.799</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -8562,10 +8562,10 @@
         <v>-0.18</v>
       </c>
       <c r="J2">
-        <v>-0.036</v>
+        <v>-0.024</v>
       </c>
       <c r="K2">
-        <v>0.972</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8597,10 +8597,10 @@
         <v>-2.678</v>
       </c>
       <c r="J3">
-        <v>-0.519</v>
+        <v>-0.37</v>
       </c>
       <c r="K3">
-        <v>0.605</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8632,10 +8632,10 @@
         <v>-12.574</v>
       </c>
       <c r="J4">
-        <v>-2.167</v>
+        <v>-2.433</v>
       </c>
       <c r="K4">
-        <v>0.032</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8667,10 +8667,10 @@
         <v>-0.862</v>
       </c>
       <c r="J5">
-        <v>-0.137</v>
+        <v>-0.125</v>
       </c>
       <c r="K5">
-        <v>0.891</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8702,10 +8702,10 @@
         <v>11.795</v>
       </c>
       <c r="J6">
-        <v>1.858</v>
+        <v>2.007</v>
       </c>
       <c r="K6">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8737,10 +8737,10 @@
         <v>5.963</v>
       </c>
       <c r="J7">
-        <v>0.9350000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="K7">
-        <v>0.351</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8772,10 +8772,10 @@
         <v>1.403</v>
       </c>
       <c r="J8">
-        <v>0.702</v>
+        <v>0.537</v>
       </c>
       <c r="K8">
-        <v>0.484</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8807,10 +8807,10 @@
         <v>2.048</v>
       </c>
       <c r="J9">
-        <v>1.082</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="K9">
-        <v>0.281</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8842,10 +8842,10 @@
         <v>5.887</v>
       </c>
       <c r="J10">
-        <v>2.71</v>
+        <v>2.631</v>
       </c>
       <c r="K10">
-        <v>0.007</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8877,10 +8877,10 @@
         <v>1.109</v>
       </c>
       <c r="J11">
-        <v>0.468</v>
+        <v>0.454</v>
       </c>
       <c r="K11">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8912,10 +8912,10 @@
         <v>-6.545</v>
       </c>
       <c r="J12">
-        <v>-2.663</v>
+        <v>-2.343</v>
       </c>
       <c r="K12">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8947,10 +8947,10 @@
         <v>-3.022</v>
       </c>
       <c r="J13">
-        <v>-1.21</v>
+        <v>-0.772</v>
       </c>
       <c r="K13">
-        <v>0.228</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8982,10 +8982,10 @@
         <v>-0.042</v>
       </c>
       <c r="J14">
-        <v>-1.203</v>
+        <v>-0.9330000000000001</v>
       </c>
       <c r="K14">
-        <v>0.231</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -9017,10 +9017,10 @@
         <v>0.011</v>
       </c>
       <c r="J15">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="K15">
-        <v>0.764</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9052,10 +9052,10 @@
         <v>-0.019</v>
       </c>
       <c r="J16">
-        <v>-0.502</v>
+        <v>-0.516</v>
       </c>
       <c r="K16">
-        <v>0.617</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9087,10 +9087,10 @@
         <v>0.016</v>
       </c>
       <c r="J17">
-        <v>0.258</v>
+        <v>0.255</v>
       </c>
       <c r="K17">
-        <v>0.796</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9122,10 +9122,10 @@
         <v>0.049</v>
       </c>
       <c r="J18">
-        <v>0.739</v>
+        <v>0.805</v>
       </c>
       <c r="K18">
-        <v>0.461</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9157,10 +9157,10 @@
         <v>-0.022</v>
       </c>
       <c r="J19">
-        <v>-0.314</v>
+        <v>-0.264</v>
       </c>
       <c r="K19">
-        <v>0.754</v>
+        <v>0.792</v>
       </c>
     </row>
   </sheetData>
@@ -9239,10 +9239,10 @@
         <v>4.306</v>
       </c>
       <c r="H2">
-        <v>1.075</v>
+        <v>0.883</v>
       </c>
       <c r="I2">
-        <v>0.284</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9268,10 +9268,10 @@
         <v>4.534</v>
       </c>
       <c r="H3">
-        <v>1.125</v>
+        <v>1.029</v>
       </c>
       <c r="I3">
-        <v>0.262</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9297,10 +9297,10 @@
         <v>-1.752</v>
       </c>
       <c r="H4">
-        <v>-0.359</v>
+        <v>-0.376</v>
       </c>
       <c r="I4">
-        <v>0.72</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9326,10 +9326,10 @@
         <v>2.373</v>
       </c>
       <c r="H5">
-        <v>0.451</v>
+        <v>0.388</v>
       </c>
       <c r="I5">
-        <v>0.652</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9355,10 +9355,10 @@
         <v>7.744</v>
       </c>
       <c r="H6">
-        <v>1.426</v>
+        <v>1.272</v>
       </c>
       <c r="I6">
-        <v>0.155</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9384,7 +9384,7 @@
         <v>5.277</v>
       </c>
       <c r="H7">
-        <v>1.005</v>
+        <v>1.003</v>
       </c>
       <c r="I7">
         <v>0.316</v>
@@ -9413,10 +9413,10 @@
         <v>-0.36</v>
       </c>
       <c r="H8">
-        <v>-0.222</v>
+        <v>-0.23</v>
       </c>
       <c r="I8">
-        <v>0.824</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9442,10 +9442,10 @@
         <v>-1.299</v>
       </c>
       <c r="H9">
-        <v>-0.819</v>
+        <v>-0.8149999999999999</v>
       </c>
       <c r="I9">
-        <v>0.414</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9471,10 +9471,10 @@
         <v>0.609</v>
       </c>
       <c r="H10">
-        <v>0.321</v>
+        <v>0.369</v>
       </c>
       <c r="I10">
-        <v>0.749</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9500,10 +9500,10 @@
         <v>0.106</v>
       </c>
       <c r="H11">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="I11">
-        <v>0.959</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9529,10 +9529,10 @@
         <v>-3.493</v>
       </c>
       <c r="H12">
-        <v>-1.644</v>
+        <v>-1.329</v>
       </c>
       <c r="I12">
-        <v>0.102</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9558,10 +9558,10 @@
         <v>-2.112</v>
       </c>
       <c r="H13">
-        <v>-1.001</v>
+        <v>-0.892</v>
       </c>
       <c r="I13">
-        <v>0.318</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9587,10 +9587,10 @@
         <v>-0.021</v>
       </c>
       <c r="H14">
-        <v>-0.73</v>
+        <v>-0.749</v>
       </c>
       <c r="I14">
-        <v>0.466</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9616,10 +9616,10 @@
         <v>0.01</v>
       </c>
       <c r="H15">
-        <v>0.329</v>
+        <v>0.333</v>
       </c>
       <c r="I15">
-        <v>0.742</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9645,10 +9645,10 @@
         <v>0.01</v>
       </c>
       <c r="H16">
-        <v>0.236</v>
+        <v>0.366</v>
       </c>
       <c r="I16">
-        <v>0.8139999999999999</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9674,10 +9674,10 @@
         <v>0.06</v>
       </c>
       <c r="H17">
-        <v>1.164</v>
+        <v>1.074</v>
       </c>
       <c r="I17">
-        <v>0.246</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9706,7 +9706,7 @@
         <v>1.33</v>
       </c>
       <c r="I18">
-        <v>0.185</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9732,10 +9732,10 @@
         <v>-0.053</v>
       </c>
       <c r="H19">
-        <v>-0.92</v>
+        <v>-0.782</v>
       </c>
       <c r="I19">
-        <v>0.359</v>
+        <v>0.434</v>
       </c>
     </row>
   </sheetData>
@@ -9821,10 +9821,10 @@
         <v>6.842</v>
       </c>
       <c r="I2">
-        <v>1.519</v>
+        <v>1.236</v>
       </c>
       <c r="J2">
-        <v>0.13</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9853,10 +9853,10 @@
         <v>3.955</v>
       </c>
       <c r="I3">
-        <v>0.869</v>
+        <v>0.905</v>
       </c>
       <c r="J3">
-        <v>0.386</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9885,10 +9885,10 @@
         <v>-0.136</v>
       </c>
       <c r="I4">
-        <v>-0.025</v>
+        <v>-0.023</v>
       </c>
       <c r="J4">
-        <v>0.98</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9917,10 +9917,10 @@
         <v>0.341</v>
       </c>
       <c r="I5">
-        <v>0.057</v>
+        <v>0.054</v>
       </c>
       <c r="J5">
-        <v>0.954</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9949,10 +9949,10 @@
         <v>5.789</v>
       </c>
       <c r="I6">
-        <v>0.9429999999999999</v>
+        <v>0.847</v>
       </c>
       <c r="J6">
-        <v>0.347</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9981,10 +9981,10 @@
         <v>5.751</v>
       </c>
       <c r="I7">
-        <v>0.972</v>
+        <v>0.847</v>
       </c>
       <c r="J7">
-        <v>0.332</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10013,10 +10013,10 @@
         <v>-1.029</v>
       </c>
       <c r="I8">
-        <v>-0.5649999999999999</v>
+        <v>-0.681</v>
       </c>
       <c r="J8">
-        <v>0.573</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10045,10 +10045,10 @@
         <v>-0.53</v>
       </c>
       <c r="I9">
-        <v>-0.296</v>
+        <v>-0.315</v>
       </c>
       <c r="J9">
-        <v>0.768</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10077,10 +10077,10 @@
         <v>0.453</v>
       </c>
       <c r="I10">
-        <v>0.212</v>
+        <v>0.24</v>
       </c>
       <c r="J10">
-        <v>0.832</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10109,10 +10109,10 @@
         <v>1.057</v>
       </c>
       <c r="I11">
-        <v>0.459</v>
+        <v>0.466</v>
       </c>
       <c r="J11">
-        <v>0.646</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10141,10 +10141,10 @@
         <v>-3.202</v>
       </c>
       <c r="I12">
-        <v>-1.334</v>
+        <v>-1.086</v>
       </c>
       <c r="J12">
-        <v>0.184</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10173,10 +10173,10 @@
         <v>-2.632</v>
       </c>
       <c r="I13">
-        <v>-1.107</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="J13">
-        <v>0.269</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10205,10 +10205,10 @@
         <v>-0.011</v>
       </c>
       <c r="I14">
-        <v>-0.358</v>
+        <v>-0.393</v>
       </c>
       <c r="J14">
-        <v>0.721</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10237,10 +10237,10 @@
         <v>0.017</v>
       </c>
       <c r="I15">
-        <v>0.521</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J15">
-        <v>0.603</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10269,10 +10269,10 @@
         <v>0.028</v>
       </c>
       <c r="I16">
-        <v>0.596</v>
+        <v>0.769</v>
       </c>
       <c r="J16">
-        <v>0.552</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10301,10 +10301,10 @@
         <v>0.079</v>
       </c>
       <c r="I17">
-        <v>1.352</v>
+        <v>1.307</v>
       </c>
       <c r="J17">
-        <v>0.178</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10333,10 +10333,10 @@
         <v>0.047</v>
       </c>
       <c r="I18">
-        <v>0.736</v>
+        <v>0.767</v>
       </c>
       <c r="J18">
-        <v>0.463</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10365,10 +10365,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="I19">
-        <v>-1.059</v>
+        <v>-0.988</v>
       </c>
       <c r="J19">
-        <v>0.291</v>
+        <v>0.323</v>
       </c>
     </row>
   </sheetData>
@@ -10454,10 +10454,10 @@
         <v>6.195</v>
       </c>
       <c r="I2">
-        <v>1.154</v>
+        <v>0.911</v>
       </c>
       <c r="J2">
-        <v>0.25</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10486,10 +10486,10 @@
         <v>1.091</v>
       </c>
       <c r="I3">
-        <v>0.201</v>
+        <v>0.231</v>
       </c>
       <c r="J3">
-        <v>0.841</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10518,10 +10518,10 @@
         <v>-2.584</v>
       </c>
       <c r="I4">
-        <v>-0.395</v>
+        <v>-0.392</v>
       </c>
       <c r="J4">
-        <v>0.6929999999999999</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10550,10 +10550,10 @@
         <v>-2.755</v>
       </c>
       <c r="I5">
-        <v>-0.391</v>
+        <v>-0.399</v>
       </c>
       <c r="J5">
-        <v>0.696</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10582,10 +10582,10 @@
         <v>5.78</v>
       </c>
       <c r="I6">
-        <v>0.792</v>
+        <v>0.771</v>
       </c>
       <c r="J6">
-        <v>0.429</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10614,10 +10614,10 @@
         <v>4.35</v>
       </c>
       <c r="I7">
-        <v>0.617</v>
+        <v>0.539</v>
       </c>
       <c r="J7">
-        <v>0.538</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10646,10 +10646,10 @@
         <v>-1.204</v>
       </c>
       <c r="I8">
-        <v>-0.556</v>
+        <v>-0.49</v>
       </c>
       <c r="J8">
-        <v>0.579</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10678,10 +10678,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="I9">
-        <v>0.034</v>
+        <v>0.04</v>
       </c>
       <c r="J9">
-        <v>0.973</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10710,10 +10710,10 @@
         <v>1.103</v>
       </c>
       <c r="I10">
-        <v>0.434</v>
+        <v>0.423</v>
       </c>
       <c r="J10">
-        <v>0.665</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10742,10 +10742,10 @@
         <v>2.763</v>
       </c>
       <c r="I11">
-        <v>1.012</v>
+        <v>1.071</v>
       </c>
       <c r="J11">
-        <v>0.313</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10774,10 +10774,10 @@
         <v>-3.471</v>
       </c>
       <c r="I12">
-        <v>-1.215</v>
+        <v>-0.992</v>
       </c>
       <c r="J12">
-        <v>0.226</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10806,10 +10806,10 @@
         <v>-1.711</v>
       </c>
       <c r="I13">
-        <v>-0.604</v>
+        <v>-0.494</v>
       </c>
       <c r="J13">
-        <v>0.546</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10838,10 +10838,10 @@
         <v>-0.032</v>
       </c>
       <c r="I14">
-        <v>-0.831</v>
+        <v>-0.83</v>
       </c>
       <c r="J14">
-        <v>0.407</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10870,10 +10870,10 @@
         <v>0.008</v>
       </c>
       <c r="I15">
-        <v>0.198</v>
+        <v>0.215</v>
       </c>
       <c r="J15">
-        <v>0.843</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10902,10 +10902,10 @@
         <v>-0.011</v>
       </c>
       <c r="I16">
-        <v>-0.207</v>
+        <v>-0.255</v>
       </c>
       <c r="J16">
-        <v>0.836</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10934,10 +10934,10 @@
         <v>0.04</v>
       </c>
       <c r="I17">
-        <v>0.58</v>
+        <v>0.601</v>
       </c>
       <c r="J17">
-        <v>0.5620000000000001</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10966,10 +10966,10 @@
         <v>0.059</v>
       </c>
       <c r="I18">
-        <v>0.783</v>
+        <v>0.736</v>
       </c>
       <c r="J18">
-        <v>0.434</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10998,10 +10998,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="I19">
-        <v>-0.891</v>
+        <v>-0.999</v>
       </c>
       <c r="J19">
-        <v>0.374</v>
+        <v>0.318</v>
       </c>
     </row>
   </sheetData>
@@ -11080,10 +11080,10 @@
         <v>-1.914</v>
       </c>
       <c r="H2">
-        <v>-0.614</v>
+        <v>-0.604</v>
       </c>
       <c r="I2">
-        <v>0.54</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11109,10 +11109,10 @@
         <v>-0.57</v>
       </c>
       <c r="H3">
-        <v>-0.181</v>
+        <v>-0.169</v>
       </c>
       <c r="I3">
-        <v>0.857</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11138,10 +11138,10 @@
         <v>-2.808</v>
       </c>
       <c r="H4">
-        <v>-0.77</v>
+        <v>-0.663</v>
       </c>
       <c r="I4">
-        <v>0.442</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11167,10 +11167,10 @@
         <v>-2.102</v>
       </c>
       <c r="H5">
-        <v>-0.529</v>
+        <v>-0.408</v>
       </c>
       <c r="I5">
-        <v>0.598</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11196,10 +11196,10 @@
         <v>0.633</v>
       </c>
       <c r="H6">
-        <v>0.153</v>
+        <v>0.12</v>
       </c>
       <c r="I6">
-        <v>0.879</v>
+        <v>0.904</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11225,10 +11225,10 @@
         <v>-6.266</v>
       </c>
       <c r="H7">
-        <v>-1.545</v>
+        <v>-1.373</v>
       </c>
       <c r="I7">
-        <v>0.124</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11254,10 +11254,10 @@
         <v>0.586</v>
       </c>
       <c r="H8">
-        <v>0.469</v>
+        <v>0.428</v>
       </c>
       <c r="I8">
-        <v>0.639</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11283,10 +11283,10 @@
         <v>-0.061</v>
       </c>
       <c r="H9">
-        <v>-0.05</v>
+        <v>-0.068</v>
       </c>
       <c r="I9">
-        <v>0.96</v>
+        <v>0.946</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11312,10 +11312,10 @@
         <v>1.353</v>
       </c>
       <c r="H10">
-        <v>0.959</v>
+        <v>1.043</v>
       </c>
       <c r="I10">
-        <v>0.339</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11341,10 +11341,10 @@
         <v>0.863</v>
       </c>
       <c r="H11">
-        <v>0.5610000000000001</v>
+        <v>0.508</v>
       </c>
       <c r="I11">
-        <v>0.575</v>
+        <v>0.611</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11370,10 +11370,10 @@
         <v>-1.07</v>
       </c>
       <c r="H12">
-        <v>-0.66</v>
+        <v>-0.5580000000000001</v>
       </c>
       <c r="I12">
-        <v>0.51</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11399,10 +11399,10 @@
         <v>1.31</v>
       </c>
       <c r="H13">
-        <v>0.802</v>
+        <v>0.664</v>
       </c>
       <c r="I13">
-        <v>0.424</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11428,10 +11428,10 @@
         <v>-0.032</v>
       </c>
       <c r="H14">
-        <v>-1.468</v>
+        <v>-1.658</v>
       </c>
       <c r="I14">
-        <v>0.144</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11457,10 +11457,10 @@
         <v>-0.02</v>
       </c>
       <c r="H15">
-        <v>-0.886</v>
+        <v>-0.962</v>
       </c>
       <c r="I15">
-        <v>0.377</v>
+        <v>0.336</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11486,10 +11486,10 @@
         <v>0.015</v>
       </c>
       <c r="H16">
-        <v>0.518</v>
+        <v>0.662</v>
       </c>
       <c r="I16">
-        <v>0.605</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11515,10 +11515,10 @@
         <v>0.008</v>
       </c>
       <c r="H17">
-        <v>0.22</v>
+        <v>0.192</v>
       </c>
       <c r="I17">
-        <v>0.826</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11544,10 +11544,10 @@
         <v>0.044</v>
       </c>
       <c r="H18">
-        <v>1.051</v>
+        <v>0.892</v>
       </c>
       <c r="I18">
-        <v>0.294</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11573,10 +11573,10 @@
         <v>0.023</v>
       </c>
       <c r="H19">
-        <v>0.525</v>
+        <v>0.572</v>
       </c>
       <c r="I19">
-        <v>0.6</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11662,10 +11662,10 @@
         <v>-0.141</v>
       </c>
       <c r="I2">
-        <v>-0.038</v>
+        <v>-0.03</v>
       </c>
       <c r="J2">
-        <v>0.97</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11694,10 +11694,10 @@
         <v>-0.263</v>
       </c>
       <c r="I3">
-        <v>-0.07000000000000001</v>
+        <v>-0.073</v>
       </c>
       <c r="J3">
-        <v>0.944</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11726,10 +11726,10 @@
         <v>-3.022</v>
       </c>
       <c r="I4">
-        <v>-0.6929999999999999</v>
+        <v>-0.6860000000000001</v>
       </c>
       <c r="J4">
-        <v>0.489</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11758,10 +11758,10 @@
         <v>-1.987</v>
       </c>
       <c r="I5">
-        <v>-0.418</v>
+        <v>-0.363</v>
       </c>
       <c r="J5">
-        <v>0.676</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11790,10 +11790,10 @@
         <v>6.815</v>
       </c>
       <c r="I6">
-        <v>1.383</v>
+        <v>1.364</v>
       </c>
       <c r="J6">
-        <v>0.168</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11822,10 +11822,10 @@
         <v>-1.531</v>
       </c>
       <c r="I7">
-        <v>-0.314</v>
+        <v>-0.284</v>
       </c>
       <c r="J7">
-        <v>0.754</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11854,10 +11854,10 @@
         <v>1.276</v>
       </c>
       <c r="I8">
-        <v>0.857</v>
+        <v>0.834</v>
       </c>
       <c r="J8">
-        <v>0.393</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11886,10 +11886,10 @@
         <v>0.544</v>
       </c>
       <c r="I9">
-        <v>0.37</v>
+        <v>0.434</v>
       </c>
       <c r="J9">
-        <v>0.712</v>
+        <v>0.665</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11918,10 +11918,10 @@
         <v>1.878</v>
       </c>
       <c r="I10">
-        <v>1.114</v>
+        <v>1.277</v>
       </c>
       <c r="J10">
-        <v>0.267</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11950,10 +11950,10 @@
         <v>1.175</v>
       </c>
       <c r="I11">
-        <v>0.639</v>
+        <v>0.598</v>
       </c>
       <c r="J11">
-        <v>0.523</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11982,10 +11982,10 @@
         <v>-3.469</v>
       </c>
       <c r="I12">
-        <v>-1.803</v>
+        <v>-1.706</v>
       </c>
       <c r="J12">
-        <v>0.073</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12014,10 +12014,10 @@
         <v>-0.197</v>
       </c>
       <c r="I13">
-        <v>-0.101</v>
+        <v>-0.08699999999999999</v>
       </c>
       <c r="J13">
-        <v>0.92</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12046,10 +12046,10 @@
         <v>-0.038</v>
       </c>
       <c r="I14">
-        <v>-1.445</v>
+        <v>-1.117</v>
       </c>
       <c r="J14">
-        <v>0.15</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12078,10 +12078,10 @@
         <v>-0.023</v>
       </c>
       <c r="I15">
-        <v>-0.866</v>
+        <v>-0.799</v>
       </c>
       <c r="J15">
-        <v>0.387</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12110,10 +12110,10 @@
         <v>0.011</v>
       </c>
       <c r="I16">
-        <v>0.303</v>
+        <v>0.442</v>
       </c>
       <c r="J16">
-        <v>0.762</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12142,10 +12142,10 @@
         <v>0.037</v>
       </c>
       <c r="I17">
-        <v>0.841</v>
+        <v>0.716</v>
       </c>
       <c r="J17">
-        <v>0.402</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12174,10 +12174,10 @@
         <v>0.062</v>
       </c>
       <c r="I18">
-        <v>1.237</v>
+        <v>1.095</v>
       </c>
       <c r="J18">
-        <v>0.218</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12206,10 +12206,10 @@
         <v>0.014</v>
       </c>
       <c r="I19">
-        <v>0.269</v>
+        <v>0.28</v>
       </c>
       <c r="J19">
-        <v>0.788</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -12295,10 +12295,10 @@
         <v>0.293</v>
       </c>
       <c r="I2">
-        <v>0.07199999999999999</v>
+        <v>0.062</v>
       </c>
       <c r="J2">
-        <v>0.9419999999999999</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12327,10 +12327,10 @@
         <v>-0.659</v>
       </c>
       <c r="I3">
-        <v>-0.161</v>
+        <v>-0.164</v>
       </c>
       <c r="J3">
-        <v>0.872</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12359,10 +12359,10 @@
         <v>-3.829</v>
       </c>
       <c r="I4">
-        <v>-0.8090000000000001</v>
+        <v>-0.702</v>
       </c>
       <c r="J4">
-        <v>0.419</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12391,10 +12391,10 @@
         <v>-3.742</v>
       </c>
       <c r="I5">
-        <v>-0.726</v>
+        <v>-0.652</v>
       </c>
       <c r="J5">
-        <v>0.469</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12423,10 +12423,10 @@
         <v>4.812</v>
       </c>
       <c r="I6">
-        <v>0.897</v>
+        <v>0.743</v>
       </c>
       <c r="J6">
-        <v>0.371</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12455,10 +12455,10 @@
         <v>-3.096</v>
       </c>
       <c r="I7">
-        <v>-0.585</v>
+        <v>-0.436</v>
       </c>
       <c r="J7">
-        <v>0.5590000000000001</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12487,10 +12487,10 @@
         <v>1.023</v>
       </c>
       <c r="I8">
-        <v>0.632</v>
+        <v>0.734</v>
       </c>
       <c r="J8">
-        <v>0.528</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12519,10 +12519,10 @@
         <v>0.775</v>
       </c>
       <c r="I9">
-        <v>0.485</v>
+        <v>0.516</v>
       </c>
       <c r="J9">
-        <v>0.628</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12551,10 +12551,10 @@
         <v>1.935</v>
       </c>
       <c r="I10">
-        <v>1.057</v>
+        <v>1.059</v>
       </c>
       <c r="J10">
-        <v>0.292</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12583,10 +12583,10 @@
         <v>2.035</v>
       </c>
       <c r="I11">
-        <v>1.022</v>
+        <v>0.982</v>
       </c>
       <c r="J11">
-        <v>0.308</v>
+        <v>0.326</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12615,10 +12615,10 @@
         <v>-3.218</v>
       </c>
       <c r="I12">
-        <v>-1.537</v>
+        <v>-1.15</v>
       </c>
       <c r="J12">
-        <v>0.126</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12647,10 +12647,10 @@
         <v>-0.129</v>
       </c>
       <c r="I13">
-        <v>-0.061</v>
+        <v>-0.042</v>
       </c>
       <c r="J13">
-        <v>0.952</v>
+        <v>0.966</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12679,10 +12679,10 @@
         <v>-0.035</v>
       </c>
       <c r="I14">
-        <v>-1.236</v>
+        <v>-1.196</v>
       </c>
       <c r="J14">
-        <v>0.218</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12711,10 +12711,10 @@
         <v>-0.022</v>
       </c>
       <c r="I15">
-        <v>-0.749</v>
+        <v>-0.715</v>
       </c>
       <c r="J15">
-        <v>0.455</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12743,10 +12743,10 @@
         <v>0.019</v>
       </c>
       <c r="I16">
-        <v>0.488</v>
+        <v>0.726</v>
       </c>
       <c r="J16">
-        <v>0.626</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12775,10 +12775,10 @@
         <v>0.032</v>
       </c>
       <c r="I17">
-        <v>0.657</v>
+        <v>0.596</v>
       </c>
       <c r="J17">
-        <v>0.512</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12807,10 +12807,10 @@
         <v>0.026</v>
       </c>
       <c r="I18">
-        <v>0.484</v>
+        <v>0.512</v>
       </c>
       <c r="J18">
-        <v>0.629</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12839,10 +12839,10 @@
         <v>-0.017</v>
       </c>
       <c r="I19">
-        <v>-0.299</v>
+        <v>-0.339</v>
       </c>
       <c r="J19">
-        <v>0.765</v>
+        <v>0.735</v>
       </c>
     </row>
   </sheetData>
@@ -12935,10 +12935,10 @@
         <v>-0.401</v>
       </c>
       <c r="J2">
-        <v>-0.083</v>
+        <v>-0.06</v>
       </c>
       <c r="K2">
-        <v>0.9340000000000001</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -12970,10 +12970,10 @@
         <v>-2.56</v>
       </c>
       <c r="J3">
-        <v>-0.527</v>
+        <v>-0.539</v>
       </c>
       <c r="K3">
-        <v>0.598</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13005,10 +13005,10 @@
         <v>-7.2</v>
       </c>
       <c r="J4">
-        <v>-1.285</v>
+        <v>-1.202</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13040,10 +13040,10 @@
         <v>-7.153</v>
       </c>
       <c r="J5">
-        <v>-1.171</v>
+        <v>-1.235</v>
       </c>
       <c r="K5">
-        <v>0.243</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13075,7 +13075,7 @@
         <v>4.962</v>
       </c>
       <c r="J6">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="K6">
         <v>0.437</v>
@@ -13110,10 +13110,10 @@
         <v>-5.942</v>
       </c>
       <c r="J7">
-        <v>-0.947</v>
+        <v>-0.7</v>
       </c>
       <c r="K7">
-        <v>0.345</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -13145,10 +13145,10 @@
         <v>0.698</v>
       </c>
       <c r="J8">
-        <v>0.363</v>
+        <v>0.287</v>
       </c>
       <c r="K8">
-        <v>0.717</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13180,10 +13180,10 @@
         <v>0.669</v>
       </c>
       <c r="J9">
-        <v>0.352</v>
+        <v>0.407</v>
       </c>
       <c r="K9">
-        <v>0.725</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13215,10 +13215,10 @@
         <v>2.842</v>
       </c>
       <c r="J10">
-        <v>1.309</v>
+        <v>1.249</v>
       </c>
       <c r="K10">
-        <v>0.192</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13250,10 +13250,10 @@
         <v>3.73</v>
       </c>
       <c r="J11">
-        <v>1.583</v>
+        <v>1.661</v>
       </c>
       <c r="K11">
-        <v>0.115</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13285,10 +13285,10 @@
         <v>-3.482</v>
       </c>
       <c r="J12">
-        <v>-1.399</v>
+        <v>-1.187</v>
       </c>
       <c r="K12">
-        <v>0.163</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13320,10 +13320,10 @@
         <v>1.235</v>
       </c>
       <c r="J13">
-        <v>0.49</v>
+        <v>0.329</v>
       </c>
       <c r="K13">
-        <v>0.625</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13355,10 +13355,10 @@
         <v>-0.035</v>
       </c>
       <c r="J14">
-        <v>-1.038</v>
+        <v>-0.914</v>
       </c>
       <c r="K14">
-        <v>0.301</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13390,10 +13390,10 @@
         <v>-0.02</v>
       </c>
       <c r="J15">
-        <v>-0.579</v>
+        <v>-0.743</v>
       </c>
       <c r="K15">
-        <v>0.5629999999999999</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13425,10 +13425,10 @@
         <v>0.007</v>
       </c>
       <c r="J16">
-        <v>0.152</v>
+        <v>0.216</v>
       </c>
       <c r="K16">
-        <v>0.879</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13460,10 +13460,10 @@
         <v>0.013</v>
       </c>
       <c r="J17">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="K17">
-        <v>0.826</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13495,10 +13495,10 @@
         <v>0.024</v>
       </c>
       <c r="J18">
-        <v>0.364</v>
+        <v>0.465</v>
       </c>
       <c r="K18">
-        <v>0.716</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13530,10 +13530,10 @@
         <v>-0.019</v>
       </c>
       <c r="J19">
-        <v>-0.274</v>
+        <v>-0.405</v>
       </c>
       <c r="K19">
-        <v>0.785</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -13619,10 +13619,10 @@
         <v>-2.236</v>
       </c>
       <c r="I2">
-        <v>-0.797</v>
+        <v>-0.965</v>
       </c>
       <c r="J2">
-        <v>0.426</v>
+        <v>0.335</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13651,10 +13651,10 @@
         <v>-1.444</v>
       </c>
       <c r="I3">
-        <v>-0.497</v>
+        <v>-0.551</v>
       </c>
       <c r="J3">
-        <v>0.62</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13683,10 +13683,10 @@
         <v>-2.12</v>
       </c>
       <c r="I4">
-        <v>-0.631</v>
+        <v>-0.784</v>
       </c>
       <c r="J4">
-        <v>0.529</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13715,10 +13715,10 @@
         <v>-1.059</v>
       </c>
       <c r="I5">
-        <v>-0.294</v>
+        <v>-0.3</v>
       </c>
       <c r="J5">
-        <v>0.769</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13747,10 +13747,10 @@
         <v>2.384</v>
       </c>
       <c r="I6">
-        <v>0.639</v>
+        <v>0.754</v>
       </c>
       <c r="J6">
-        <v>0.523</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13779,10 +13779,10 @@
         <v>-1.621</v>
       </c>
       <c r="I7">
-        <v>-0.43</v>
+        <v>-0.413</v>
       </c>
       <c r="J7">
-        <v>0.667</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13811,10 +13811,10 @@
         <v>0.737</v>
       </c>
       <c r="I8">
-        <v>0.663</v>
+        <v>0.712</v>
       </c>
       <c r="J8">
-        <v>0.508</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13843,10 +13843,10 @@
         <v>0.243</v>
       </c>
       <c r="I9">
-        <v>0.217</v>
+        <v>0.284</v>
       </c>
       <c r="J9">
-        <v>0.828</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -13875,10 +13875,10 @@
         <v>1.59</v>
       </c>
       <c r="I10">
-        <v>1.233</v>
+        <v>1.781</v>
       </c>
       <c r="J10">
-        <v>0.219</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -13907,10 +13907,10 @@
         <v>0.332</v>
       </c>
       <c r="I11">
-        <v>0.242</v>
+        <v>0.266</v>
       </c>
       <c r="J11">
-        <v>0.8090000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -13939,10 +13939,10 @@
         <v>-1.422</v>
       </c>
       <c r="I12">
-        <v>-0.972</v>
+        <v>-1.037</v>
       </c>
       <c r="J12">
-        <v>0.332</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13971,10 +13971,10 @@
         <v>0.132</v>
       </c>
       <c r="I13">
-        <v>0.08799999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J13">
-        <v>0.93</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14003,10 +14003,10 @@
         <v>-0.019</v>
       </c>
       <c r="I14">
-        <v>-0.956</v>
+        <v>-1.338</v>
       </c>
       <c r="J14">
-        <v>0.34</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14035,10 +14035,10 @@
         <v>-0.017</v>
       </c>
       <c r="I15">
-        <v>-0.826</v>
+        <v>-0.696</v>
       </c>
       <c r="J15">
-        <v>0.41</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14067,10 +14067,10 @@
         <v>-0.014</v>
       </c>
       <c r="I16">
-        <v>-0.5659999999999999</v>
+        <v>-0.595</v>
       </c>
       <c r="J16">
-        <v>0.572</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14099,10 +14099,10 @@
         <v>-0</v>
       </c>
       <c r="I17">
-        <v>-0.01</v>
+        <v>-0.008</v>
       </c>
       <c r="J17">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14131,10 +14131,10 @@
         <v>0.022</v>
       </c>
       <c r="I18">
-        <v>0.5600000000000001</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="J18">
-        <v>0.576</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14163,10 +14163,10 @@
         <v>0.017</v>
       </c>
       <c r="I19">
-        <v>0.424</v>
+        <v>0.394</v>
       </c>
       <c r="J19">
-        <v>0.672</v>
+        <v>0.694</v>
       </c>
     </row>
   </sheetData>
